--- a/biology/Zoologie/Doridacea/Doridacea.xlsx
+++ b/biology/Zoologie/Doridacea/Doridacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Doridacea forment un infra-ordre de mollusques de l'ordre des nudibranches. Morphologiquement, on les appelle les nudibranches « doridiens ». 
-Les classifications récentes lui préfèrent cependant le taxon des Doridoidei[1]. 
+Les classifications récentes lui préfèrent cependant le taxon des Doridoidei. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nudibranches doridiens ont pour la plupart le corps aplati, même si le pied peut être plus ou moins élevé ou la silhouette plus ou moins allongée. Le manteau est soutenu par des spicules calcaires, qui pallient l’absence de coquille ou de véritable squelette pour structurer l’organisme. L’anus est généralement situé en position dorso-postérieure, entouré du panache branchial[2]. Celui-ci peut former des arborescences très importantes ou être au contraire réduit ou rétracté (invisible chez les Phyllidiidae). Ce groupe est extrêmement varié sur le plan visuel, autant en matière de taille que de formes et de couleurs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nudibranches doridiens ont pour la plupart le corps aplati, même si le pied peut être plus ou moins élevé ou la silhouette plus ou moins allongée. Le manteau est soutenu par des spicules calcaires, qui pallient l’absence de coquille ou de véritable squelette pour structurer l’organisme. L’anus est généralement situé en position dorso-postérieure, entouré du panache branchial. Celui-ci peut former des arborescences très importantes ou être au contraire réduit ou rétracté (invisible chez les Phyllidiidae). Ce groupe est extrêmement varié sur le plan visuel, autant en matière de taille que de formes et de couleurs.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte 16 familles réparties en quatre super-familles[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte 16 familles réparties en quatre super-familles :
 super-famille Doridoidea Rafinesque, 1815
 Actinocyclidae O'Donoghue, 1929
 Cadlinidae Bergh, 1891
